--- a/mapping/ENVO_REX.xlsx
+++ b/mapping/ENVO_REX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>ENVO_IRI</t>
   </si>
@@ -28,55 +28,130 @@
     <t>REX_DESC</t>
   </si>
   <si>
+    <t>REX_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/ENVO_01000723</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/ENVO_01000841</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000875</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/ENVO_02500034</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000727</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/ENVO_01000840</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/ENVO_01001723</t>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000913</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000931</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001259</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001261</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001262</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03400014</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03501325</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03501117</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/ENVO_06105021</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_09000028</t>
+  </si>
+  <si>
     <t>{'label': 'melting', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000723'}</t>
   </si>
   <si>
     <t>{'label': 'pyrolysis', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000841'}</t>
   </si>
   <si>
+    <t>{'label': 'precipitation', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000875'}</t>
+  </si>
+  <si>
     <t>{'label': 'evaporation', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_02500034'}</t>
   </si>
   <si>
+    <t>{'label': 'sublimation', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000727'}</t>
+  </si>
+  <si>
     <t>{'label': 'thermolysis', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000840'}</t>
   </si>
   <si>
-    <t>{'label': 'adiabatic process', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001723'}</t>
+    <t>{'label': 'nucleation', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000913'}</t>
+  </si>
+  <si>
+    <t>{'label': 'migration', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000931'}</t>
+  </si>
+  <si>
+    <t>{'label': 'transport', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001259'}</t>
+  </si>
+  <si>
+    <t>{'label': 'transport', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001261'}</t>
+  </si>
+  <si>
+    <t>{'label': 'transport', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001262'}</t>
+  </si>
+  <si>
+    <t>{'label': 'precipitation', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03400014'}</t>
+  </si>
+  <si>
+    <t>{'label': 'transport', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03501325'}</t>
+  </si>
+  <si>
+    <t>{'label': 'transport', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03501117'}</t>
   </si>
   <si>
     <t>{'label': 'adsorption', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_06105021'}</t>
   </si>
   <si>
+    <t>{'label': 'evaporation', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_09000028'}</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/REX_0000177</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/REX_0000404</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/REX_0000182</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/REX_0000178</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/REX_0000180</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/REX_0000086</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/REX_0000373</t>
+    <t>http://purl.obolibrary.org/obo/REX_0000190</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/REX_0000374</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/REX_0000458</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/REX_0000198</t>
@@ -88,16 +163,31 @@
     <t>{'label': 'pyrolysis'}</t>
   </si>
   <si>
+    <t>{'label': 'precipitation'}</t>
+  </si>
+  <si>
     <t>{'label': 'evaporation'}</t>
   </si>
   <si>
+    <t>{'label': 'sublimation'}</t>
+  </si>
+  <si>
     <t>{'label': 'thermolysis'}</t>
   </si>
   <si>
-    <t>{'label': 'adiabatic process'}</t>
+    <t>{'label': 'nucleation'}</t>
+  </si>
+  <si>
+    <t>{'label': 'migration'}</t>
+  </si>
+  <si>
+    <t>{'label': 'transport'}</t>
   </si>
   <si>
     <t>{'label': 'adsorption'}</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -468,13 +558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,107 +577,328 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -604,6 +915,26 @@
     <hyperlink ref="D6" r:id="rId10"/>
     <hyperlink ref="B7" r:id="rId11"/>
     <hyperlink ref="D7" r:id="rId12"/>
+    <hyperlink ref="B8" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14"/>
+    <hyperlink ref="B9" r:id="rId15"/>
+    <hyperlink ref="D9" r:id="rId16"/>
+    <hyperlink ref="B10" r:id="rId17"/>
+    <hyperlink ref="D10" r:id="rId18"/>
+    <hyperlink ref="B11" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="B12" r:id="rId21"/>
+    <hyperlink ref="D12" r:id="rId22"/>
+    <hyperlink ref="B13" r:id="rId23"/>
+    <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="B14" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26"/>
+    <hyperlink ref="B15" r:id="rId27"/>
+    <hyperlink ref="D15" r:id="rId28"/>
+    <hyperlink ref="B16" r:id="rId29"/>
+    <hyperlink ref="D16" r:id="rId30"/>
+    <hyperlink ref="B17" r:id="rId31"/>
+    <hyperlink ref="D17" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
